--- a/resources/excel/template-bastabd.xlsx
+++ b/resources/excel/template-bastabd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 Project Iseng\4form-multitenant-v2.5\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6093A17-8DFC-4A0A-AE4C-96C313432776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C22AD3-7B4E-4D09-A46A-58541F7C01BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2F0F1EBF-A76E-4892-92A5-94909D27E8C2}"/>
   </bookViews>
@@ -526,104 +526,104 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,8 +944,8 @@
   </sheetPr>
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:J30"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A44" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,421 +962,421 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
     </row>
     <row r="19" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
@@ -1385,379 +1385,379 @@
       <c r="A32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27" t="s">
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>1</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23" t="s">
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="25"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="28"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>2</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23" t="s">
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="25"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="28"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>3</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="25"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="28"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>4</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23" t="s">
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="25"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="28"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>5</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="23" t="s">
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="25"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="28"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>6</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23" t="s">
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="25"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="28"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>7</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23" t="s">
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="25"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="28"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>8</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23" t="s">
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="25"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="28"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>9</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23" t="s">
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="25"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="28"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>10</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23" t="s">
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="25"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="28"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>11</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23" t="s">
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="25"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="28"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>12</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="23" t="s">
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="25"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="28"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>13</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="23" t="s">
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="25"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="28"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>14</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="23" t="s">
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="25"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="28"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>15</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="23" t="s">
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="25"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="28"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>16</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="23" t="s">
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="25"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>17</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="23" t="s">
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="25"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="28"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>18</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="23" t="s">
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="25"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="28"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>19</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="23" t="s">
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="25"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="28"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>20</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="23" t="s">
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="25"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="28"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
@@ -1777,68 +1777,68 @@
       <c r="A55" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
       <c r="K55" s="3"/>
     </row>
     <row r="56" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
       <c r="K56" s="3"/>
     </row>
     <row r="57" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
       <c r="K57" s="3"/>
     </row>
     <row r="58" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
       <c r="K58" s="3"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -1854,251 +1854,329 @@
       <c r="K59" s="3"/>
     </row>
     <row r="60" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="32" t="s">
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="41"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="37"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="28" t="s">
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="30"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="24"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31" t="s">
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="32" t="s">
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="41"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="20"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="38"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="39"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="28" t="s">
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="30"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="24"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31" t="s">
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="31"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="B55:J55"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="E76:J76"/>
+    <mergeCell ref="E77:J77"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A77:D77"/>
     <mergeCell ref="A19:J28"/>
     <mergeCell ref="E62:J66"/>
     <mergeCell ref="A62:D66"/>
@@ -2115,84 +2193,6 @@
     <mergeCell ref="E61:J61"/>
     <mergeCell ref="B57:J57"/>
     <mergeCell ref="B58:J58"/>
-    <mergeCell ref="E76:J76"/>
-    <mergeCell ref="E77:J77"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="B55:J55"/>
-    <mergeCell ref="B56:J56"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="63" orientation="portrait" r:id="rId1"/>
